--- a/reginfo/Registered.xlsx
+++ b/reginfo/Registered.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>FIRSTNAME3</t>
   </si>
@@ -54,6 +54,42 @@
   </si>
   <si>
     <t>SPECILITY1</t>
+  </si>
+  <si>
+    <t>Нургайша</t>
+  </si>
+  <si>
+    <t>Инкарова</t>
+  </si>
+  <si>
+    <t>Тоо&amp;amp;quot;Viamedis&amp;amp;quot;</t>
+  </si>
+  <si>
+    <t>Клинический ординатор / аспирант / студент / средний мед. персонал</t>
+  </si>
+  <si>
+    <t>Balnur</t>
+  </si>
+  <si>
+    <t>Zhumagulova</t>
+  </si>
+  <si>
+    <t>КГП на ПХБ Карасайская ММБ</t>
+  </si>
+  <si>
+    <t>Врач специалист</t>
+  </si>
+  <si>
+    <t>Balnur Balnur Balnur Balnur Balnur Balnur Balnur Balnur Balnur Balnur Balnur</t>
+  </si>
+  <si>
+    <t>Zhumagulova Zhumagulova Zhumagulova Zhumagulova Zhumagulova Zhumagulova Zhumagulova</t>
+  </si>
+  <si>
+    <t>КГП на ПХБ Карасайская ММБ КГП на ПХБ Карасайская ММБ КГП на ПХБ Карасайская ММБ</t>
+  </si>
+  <si>
+    <t>Врач специалист Врач специалист Врач специалист Врач специалист Врач специалист Врач специалист</t>
   </si>
 </sst>
 </file>
@@ -392,7 +428,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A5" sqref="A5"/>
@@ -468,6 +504,206 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/reginfo/Registered.xlsx
+++ b/reginfo/Registered.xlsx
@@ -1,32 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\domains\qr-form\reginfo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9407C0CA-A0EF-4CEC-BDEC-AD43CECD6290}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>07:10:2021</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -37,37 +53,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -357,21 +364,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="5" width="22.21875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.21875" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.21875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="22.21875" customWidth="true" style="0"/>
+    <col min="5" max="5" width="22.21875" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10" customWidth="true" style="0"/>
   </cols>
-  <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/reginfo/Registered.xlsx
+++ b/reginfo/Registered.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>First Name</t>
   </si>
@@ -30,6 +30,21 @@
   </si>
   <si>
     <t>07:10:2021</t>
+  </si>
+  <si>
+    <t>Balnur Balnur Balnur Balnur Balnur Balnur Balnur Balnur</t>
+  </si>
+  <si>
+    <t>Zhumagulova Zhumagulova Zhumagulova Zhumagulova Zhumagulova</t>
+  </si>
+  <si>
+    <t>КГП на ПХБ Карасайская ММБ КГП на ПХБ Карасайская ММБ КГП на ПХБ Карасайская ММБ</t>
+  </si>
+  <si>
+    <t>Врач специалист Врач специалист Врач специалист Врач специалист Врач специалист Врач специалист</t>
+  </si>
+  <si>
+    <t>07.10.2021</t>
   </si>
 </sst>
 </file>
@@ -368,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H11" sqref="H11"/>
@@ -414,6 +429,26 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/reginfo/Registered.xlsx
+++ b/reginfo/Registered.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>First Name</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>07.10.2021</t>
+  </si>
+  <si>
+    <t>Zherebtsov</t>
+  </si>
+  <si>
+    <t>INVISION</t>
+  </si>
+  <si>
+    <t>CEO</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H11" sqref="H11"/>
@@ -449,6 +458,106 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/reginfo/Registered.xlsx
+++ b/reginfo/Registered.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>First Name</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>CEO</t>
+  </si>
+  <si>
+    <t>Vadim</t>
+  </si>
+  <si>
+    <t>INVISIONINVISIONINVISIONINVISIONINVISIONINVISIONINVISIONINVISIONINVISIONINVISIONINVISIONINVISION</t>
+  </si>
+  <si>
+    <t>Русский текст</t>
   </si>
 </sst>
 </file>
@@ -392,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H11" sqref="H11"/>
@@ -558,6 +567,86 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
